--- a/data/trans_orig/P34E1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21F531EA-0C99-4EE1-A462-84499EA8C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09007BD-723F-4274-82B5-23D95E96D023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A07304B-8013-4E2C-A6B3-A6092480B1B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60D7E40A-9B69-49D0-8A4B-F10F79934E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="419">
   <si>
     <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
   </si>
@@ -87,1081 +87,1075 @@
     <t>7,24%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>25,57%</t>
+    <t>25,59%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>16,21%</t>
+    <t>16,24%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>22,53%</t>
+    <t>25,84%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>22,84%</t>
+    <t>22,99%</t>
   </si>
   <si>
     <t>29,54%</t>
@@ -1170,34 +1164,37 @@
     <t>23,6%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1708,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B5F79D-990D-40F9-9121-952810C99D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F4B1EC-6E1E-4036-8FE3-DB84BA45176B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1967,10 +1964,10 @@
         <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1982,13 @@
         <v>5618</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2000,13 +1997,13 @@
         <v>1647</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2015,13 +2012,13 @@
         <v>7265</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,13 +2033,13 @@
         <v>3082</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2057,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2069,10 +2066,10 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2084,13 @@
         <v>15177</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -2102,13 +2099,13 @@
         <v>6355</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2117,13 +2114,13 @@
         <v>21532</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2135,13 @@
         <v>11710</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2153,13 +2150,13 @@
         <v>4866</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2168,13 +2165,13 @@
         <v>16576</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2186,13 @@
         <v>2905</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2204,13 +2201,13 @@
         <v>2604</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2219,13 +2216,13 @@
         <v>5510</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2237,13 @@
         <v>43711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -2255,13 +2252,13 @@
         <v>22722</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -2270,18 +2267,18 @@
         <v>66433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -2299,37 +2296,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2341,13 @@
         <v>16461</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2359,13 +2356,13 @@
         <v>7350</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -2374,13 +2371,13 @@
         <v>23811</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2392,13 @@
         <v>5851</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2410,13 +2407,13 @@
         <v>2845</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -2425,13 +2422,13 @@
         <v>8696</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2443,13 @@
         <v>29409</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2461,13 +2458,13 @@
         <v>17233</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2476,13 +2473,13 @@
         <v>46642</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2494,13 @@
         <v>18892</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2512,13 +2509,13 @@
         <v>9624</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2527,13 +2524,13 @@
         <v>28515</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2545,13 @@
         <v>41316</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2563,13 +2560,13 @@
         <v>18213</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -2578,13 +2575,13 @@
         <v>59529</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2596,13 @@
         <v>28496</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2614,13 +2611,13 @@
         <v>23686</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2629,13 +2626,13 @@
         <v>52182</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2647,13 @@
         <v>14761</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2665,13 +2662,13 @@
         <v>2653</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2680,13 +2677,13 @@
         <v>17414</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2698,13 @@
         <v>155185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2716,13 +2713,13 @@
         <v>81604</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>233</v>
@@ -2731,18 +2728,18 @@
         <v>236790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -2760,37 +2757,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2802,13 @@
         <v>31345</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -2820,13 +2817,13 @@
         <v>23247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -2835,13 +2832,13 @@
         <v>54591</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2853,13 @@
         <v>15797</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -2871,13 +2868,13 @@
         <v>8566</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -2886,13 +2883,13 @@
         <v>24363</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,10 +2904,10 @@
         <v>64291</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>161</v>
@@ -2928,7 +2925,7 @@
         <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -2937,13 +2934,13 @@
         <v>98589</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2955,13 @@
         <v>23370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -2973,7 +2970,7 @@
         <v>28254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>171</v>
@@ -3063,10 +3060,10 @@
         <v>185</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -3075,13 +3072,13 @@
         <v>54840</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M28" s="7">
         <v>116</v>
@@ -3090,13 +3087,13 @@
         <v>126276</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3108,13 @@
         <v>18672</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3126,13 +3123,13 @@
         <v>11073</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -3141,13 +3138,13 @@
         <v>29745</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3159,13 @@
         <v>322115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7">
         <v>207</v>
@@ -3177,13 +3174,13 @@
         <v>219129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>498</v>
@@ -3192,13 +3189,13 @@
         <v>541244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,10 +3266,10 @@
         <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -3281,13 +3278,13 @@
         <v>9938</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -3296,13 +3293,13 @@
         <v>27648</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3314,13 @@
         <v>6268</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -3332,13 +3329,13 @@
         <v>4033</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -3347,13 +3344,13 @@
         <v>10301</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3365,13 @@
         <v>56912</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -3383,13 +3380,13 @@
         <v>29420</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>81</v>
@@ -3398,13 +3395,13 @@
         <v>86332</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3416,13 @@
         <v>18188</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3434,13 +3431,13 @@
         <v>12713</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -3449,13 +3446,13 @@
         <v>30902</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3467,13 @@
         <v>50149</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -3485,13 +3482,13 @@
         <v>28205</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>74</v>
@@ -3500,13 +3497,13 @@
         <v>78354</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3518,13 @@
         <v>69251</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -3536,13 +3533,13 @@
         <v>43789</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>101</v>
@@ -3551,13 +3548,13 @@
         <v>113040</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3569,13 @@
         <v>36024</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H38" s="7">
         <v>40</v>
@@ -3587,13 +3584,13 @@
         <v>42223</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M38" s="7">
         <v>72</v>
@@ -3602,13 +3599,13 @@
         <v>78247</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3620,13 @@
         <v>254503</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="7">
         <v>166</v>
@@ -3638,13 +3635,13 @@
         <v>170321</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M39" s="7">
         <v>394</v>
@@ -3653,18 +3650,18 @@
         <v>424824</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -3682,37 +3679,37 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3724,13 @@
         <v>36372</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -3742,13 +3739,13 @@
         <v>23403</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M41" s="7">
         <v>57</v>
@@ -3757,13 +3754,13 @@
         <v>59775</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3775,13 @@
         <v>9895</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3793,13 +3790,13 @@
         <v>4690</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M42" s="7">
         <v>13</v>
@@ -3808,13 +3805,13 @@
         <v>14585</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3826,13 @@
         <v>59401</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H43" s="7">
         <v>30</v>
@@ -3844,13 +3841,13 @@
         <v>32473</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M43" s="7">
         <v>89</v>
@@ -3859,13 +3856,13 @@
         <v>91875</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3877,13 @@
         <v>30715</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
@@ -3895,13 +3892,13 @@
         <v>22880</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>53</v>
@@ -3910,13 +3907,13 @@
         <v>53595</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3928,13 @@
         <v>82306</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H45" s="7">
         <v>68</v>
@@ -3946,13 +3943,13 @@
         <v>70387</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M45" s="7">
         <v>149</v>
@@ -3961,13 +3958,13 @@
         <v>152694</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3979,13 @@
         <v>54732</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="H46" s="7">
         <v>57</v>
@@ -3997,13 +3994,13 @@
         <v>63139</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="M46" s="7">
         <v>111</v>
@@ -4012,13 +4009,13 @@
         <v>117871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4030,13 @@
         <v>31671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4048,13 +4045,13 @@
         <v>13158</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M47" s="7">
         <v>44</v>
@@ -4063,13 +4060,13 @@
         <v>44828</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4081,13 @@
         <v>305092</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="7">
         <v>216</v>
@@ -4099,13 +4096,13 @@
         <v>230131</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M48" s="7">
         <v>516</v>
@@ -4114,13 +4111,13 @@
         <v>535223</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,37 +4140,37 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4185,13 @@
         <v>105051</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H50" s="7">
         <v>63</v>
@@ -4203,13 +4200,13 @@
         <v>65824</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M50" s="7">
         <v>161</v>
@@ -4218,13 +4215,13 @@
         <v>170875</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4236,13 @@
         <v>39866</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -4254,13 +4251,13 @@
         <v>23771</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M51" s="7">
         <v>60</v>
@@ -4269,13 +4266,13 @@
         <v>63637</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>345</v>
+        <v>66</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>347</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4287,13 @@
         <v>215632</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H52" s="7">
         <v>111</v>
@@ -4305,13 +4302,13 @@
         <v>115071</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M52" s="7">
         <v>316</v>
@@ -4320,13 +4317,13 @@
         <v>330702</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4338,13 @@
         <v>94247</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H53" s="7">
         <v>75</v>
@@ -4356,13 +4353,13 @@
         <v>75198</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M53" s="7">
         <v>166</v>
@@ -4371,13 +4368,13 @@
         <v>169446</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4389,13 @@
         <v>286151</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H54" s="7">
         <v>177</v>
@@ -4407,13 +4404,13 @@
         <v>182012</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M54" s="7">
         <v>445</v>
@@ -4422,13 +4419,13 @@
         <v>468163</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4440,13 @@
         <v>235624</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H55" s="7">
         <v>179</v>
@@ -4458,13 +4455,13 @@
         <v>190321</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M55" s="7">
         <v>397</v>
@@ -4473,13 +4470,13 @@
         <v>425945</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4491,13 @@
         <v>104034</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H56" s="7">
         <v>70</v>
@@ -4509,13 +4506,13 @@
         <v>71711</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M56" s="7">
         <v>165</v>
@@ -4524,13 +4521,13 @@
         <v>175745</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4542,13 @@
         <v>1080606</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H57" s="7">
         <v>699</v>
@@ -4560,13 +4557,13 @@
         <v>723907</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M57" s="7">
         <v>1710</v>
@@ -4575,18 +4572,18 @@
         <v>1804513</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -4607,7 +4604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6FAFAD-ABA2-4314-A03C-5EB34D2D0725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBE3F96-8E14-4E45-8494-C0E08C90ED36}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4624,7 +4621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4731,13 +4728,13 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>243</v>
@@ -4746,13 +4743,13 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>361</v>
@@ -4761,13 +4758,13 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,37 +4785,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,37 +4836,37 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,37 +4887,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,37 +4938,37 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,37 +4989,37 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,37 +5040,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,37 +5091,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5136,13 @@
         <v>101982</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>243</v>
@@ -5154,13 +5151,13 @@
         <v>130733</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>361</v>
@@ -5169,18 +5166,18 @@
         <v>232715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -5192,13 +5189,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>998</v>
@@ -5207,13 +5204,13 @@
         <v>619967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>1610</v>
@@ -5222,13 +5219,13 @@
         <v>1169790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,37 +5246,37 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,37 +5297,37 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,37 +5348,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,37 +5399,37 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,37 +5450,37 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,37 +5501,37 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,37 +5552,37 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5597,13 @@
         <v>549823</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>998</v>
@@ -5615,13 +5612,13 @@
         <v>619967</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="7">
         <v>1610</v>
@@ -5630,18 +5627,18 @@
         <v>1169790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5">
         <v>994</v>
@@ -5653,13 +5650,13 @@
         <v>1039248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>1517</v>
@@ -5668,13 +5665,13 @@
         <v>1060079</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M22" s="7">
         <v>2481</v>
@@ -5683,13 +5680,13 @@
         <v>2099327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,37 +5707,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,37 +5758,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,37 +5809,37 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,37 +5860,37 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,37 +5911,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,37 +5962,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,37 +6013,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6058,13 @@
         <v>1039248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="7">
         <v>1517</v>
@@ -6076,13 +6073,13 @@
         <v>1060079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>2481</v>
@@ -6091,13 +6088,13 @@
         <v>2099327</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6111,13 @@
         <v>728772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="7">
         <v>1047</v>
@@ -6129,13 +6126,13 @@
         <v>874371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M31" s="7">
         <v>1723</v>
@@ -6144,13 +6141,13 @@
         <v>1603142</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,23 +6168,23 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M32" s="7">
         <v>0</v>
       </c>
@@ -6201,7 +6198,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,23 +6219,23 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M33" s="7">
         <v>0</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,23 +6270,23 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M34" s="7">
         <v>0</v>
       </c>
@@ -6303,7 +6300,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,23 +6321,23 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M35" s="7">
         <v>0</v>
       </c>
@@ -6354,7 +6351,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,23 +6372,23 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
@@ -6405,7 +6402,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,23 +6423,23 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,23 +6474,23 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
@@ -6507,7 +6504,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6519,13 @@
         <v>728772</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="7">
         <v>1047</v>
@@ -6537,13 +6534,13 @@
         <v>874371</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M39" s="7">
         <v>1723</v>
@@ -6552,18 +6549,18 @@
         <v>1603142</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -6575,13 +6572,13 @@
         <v>965403</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H40" s="7">
         <v>1562</v>
@@ -6590,13 +6587,13 @@
         <v>1150432</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M40" s="7">
         <v>2568</v>
@@ -6605,13 +6602,13 @@
         <v>2115835</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6647,7 +6644,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6662,7 +6659,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,7 +6680,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6698,7 +6695,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6713,7 +6710,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,7 +6731,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -6749,7 +6746,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6764,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,7 +6782,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -6800,7 +6797,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6815,7 +6812,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,7 +6833,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -6851,7 +6848,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6866,7 +6863,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +6884,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -6902,7 +6899,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6917,7 +6914,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,7 +6935,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -6953,7 +6950,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6968,7 +6965,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +6980,13 @@
         <v>965403</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H48" s="7">
         <v>1562</v>
@@ -6998,13 +6995,13 @@
         <v>1150432</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M48" s="7">
         <v>2568</v>
@@ -7013,13 +7010,13 @@
         <v>2115835</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7033,13 @@
         <v>3385228</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="7">
         <v>5367</v>
@@ -7051,28 +7048,28 @@
         <v>3835581</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M49" s="7">
         <v>8743</v>
       </c>
       <c r="N49" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,37 +7090,37 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,37 +7141,37 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,37 +7192,37 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,37 +7243,37 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,37 +7294,37 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,37 +7345,37 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,37 +7396,37 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7441,13 @@
         <v>3385228</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H57" s="7">
         <v>5367</v>
@@ -7459,33 +7456,33 @@
         <v>3835581</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M57" s="7">
         <v>8743</v>
       </c>
       <c r="N57" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34E1-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09007BD-723F-4274-82B5-23D95E96D023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB44E4F1-EE18-4CE7-AF0B-C87EE90A60BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60D7E40A-9B69-49D0-8A4B-F10F79934E0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0B305E9-CF64-4440-90D5-CBE2B7C7C92F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="419">
-  <si>
-    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2015 (Tasa respuesta: 26,03%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="418">
+  <si>
+    <t>Población según el número de días que realizo actividades físicas moderadas a lo largo de los últimos 7 días en 2016 (Tasa respuesta: 26,03%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -87,1114 +87,1111 @@
     <t>7,24%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>25,59%</t>
+    <t>25,01%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>25,6%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1705,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F4B1EC-6E1E-4036-8FE3-DB84BA45176B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97128391-28AC-4394-9237-F3FCEAB29BA1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,10 +1961,10 @@
         <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1979,13 @@
         <v>5618</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1997,13 +1994,13 @@
         <v>1647</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2012,13 +2009,13 @@
         <v>7265</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2030,13 @@
         <v>3082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2054,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2066,10 +2063,10 @@
         <v>15</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2081,13 @@
         <v>15177</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -2099,13 +2096,13 @@
         <v>6355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2114,13 +2111,13 @@
         <v>21532</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2132,13 @@
         <v>11710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2150,13 +2147,13 @@
         <v>4866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2165,13 +2162,13 @@
         <v>16576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2183,13 @@
         <v>2905</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2201,13 +2198,13 @@
         <v>2604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2216,13 +2213,13 @@
         <v>5510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2234,13 @@
         <v>43711</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -2252,13 +2249,13 @@
         <v>22722</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -2267,18 +2264,18 @@
         <v>66433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -2296,7 +2293,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2311,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2326,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2338,13 @@
         <v>16461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2356,13 +2353,13 @@
         <v>7350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -2371,13 +2368,13 @@
         <v>23811</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2389,13 @@
         <v>5851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2407,13 +2404,13 @@
         <v>2845</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -2422,13 +2419,13 @@
         <v>8696</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2440,13 @@
         <v>29409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -2458,13 +2455,13 @@
         <v>17233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -2473,10 +2470,10 @@
         <v>46642</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>101</v>
@@ -2698,13 +2695,13 @@
         <v>155185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2713,13 +2710,13 @@
         <v>81604</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21" s="7">
         <v>233</v>
@@ -2728,13 +2725,13 @@
         <v>236790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,7 +2814,7 @@
         <v>23247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>145</v>
@@ -2835,10 +2832,10 @@
         <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2850,13 @@
         <v>15797</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -2868,13 +2865,13 @@
         <v>8566</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>23</v>
@@ -2883,13 +2880,13 @@
         <v>24363</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2901,13 @@
         <v>64291</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -2919,13 +2916,13 @@
         <v>34298</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -2934,13 +2931,13 @@
         <v>98589</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2952,13 @@
         <v>23370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -2970,13 +2967,13 @@
         <v>28254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -2985,13 +2982,13 @@
         <v>51624</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3003,13 @@
         <v>97204</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -3021,13 +3018,13 @@
         <v>58851</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M27" s="7">
         <v>141</v>
@@ -3036,13 +3033,13 @@
         <v>156055</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3054,13 @@
         <v>71436</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>51</v>
@@ -3072,13 +3069,13 @@
         <v>54840</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>116</v>
@@ -3087,13 +3084,13 @@
         <v>126276</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3105,13 @@
         <v>18672</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -3123,13 +3120,13 @@
         <v>11073</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -3138,13 +3135,13 @@
         <v>29745</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3156,13 @@
         <v>322115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7">
         <v>207</v>
@@ -3174,13 +3171,13 @@
         <v>219129</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>498</v>
@@ -3189,18 +3186,18 @@
         <v>541244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -3218,37 +3215,37 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3260,13 @@
         <v>17710</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -3278,13 +3275,13 @@
         <v>9938</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -3293,13 +3290,13 @@
         <v>27648</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3311,13 @@
         <v>6268</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -3329,13 +3326,13 @@
         <v>4033</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M33" s="7">
         <v>10</v>
@@ -3344,13 +3341,13 @@
         <v>10301</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3362,13 @@
         <v>56912</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
@@ -3380,13 +3377,13 @@
         <v>29420</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M34" s="7">
         <v>81</v>
@@ -3395,13 +3392,13 @@
         <v>86332</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3413,13 @@
         <v>18188</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -3431,13 +3428,13 @@
         <v>12713</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -3446,13 +3443,13 @@
         <v>30902</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3464,13 @@
         <v>50149</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -3482,13 +3479,13 @@
         <v>28205</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>74</v>
@@ -3497,10 +3494,10 @@
         <v>78354</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>244</v>
@@ -3521,10 +3518,10 @@
         <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -3533,13 +3530,13 @@
         <v>43789</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>101</v>
@@ -3548,13 +3545,13 @@
         <v>113040</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,13 +3566,13 @@
         <v>36024</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H38" s="7">
         <v>40</v>
@@ -3584,13 +3581,13 @@
         <v>42223</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M38" s="7">
         <v>72</v>
@@ -3599,13 +3596,13 @@
         <v>78247</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3617,13 @@
         <v>254503</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" s="7">
         <v>166</v>
@@ -3635,13 +3632,13 @@
         <v>170321</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M39" s="7">
         <v>394</v>
@@ -3650,18 +3647,18 @@
         <v>424824</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -3679,37 +3676,37 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3721,13 @@
         <v>36372</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>269</v>
+        <v>25</v>
       </c>
       <c r="H41" s="7">
         <v>22</v>
@@ -3739,13 +3736,13 @@
         <v>23403</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M41" s="7">
         <v>57</v>
@@ -3754,13 +3751,13 @@
         <v>59775</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3772,13 @@
         <v>9895</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3790,13 +3787,13 @@
         <v>4690</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M42" s="7">
         <v>13</v>
@@ -3805,13 +3802,13 @@
         <v>14585</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3823,13 @@
         <v>59401</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H43" s="7">
         <v>30</v>
@@ -3841,13 +3838,13 @@
         <v>32473</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M43" s="7">
         <v>89</v>
@@ -3856,13 +3853,13 @@
         <v>91875</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3874,13 @@
         <v>30715</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
@@ -3892,13 +3889,13 @@
         <v>22880</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>53</v>
@@ -3907,13 +3904,13 @@
         <v>53595</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3925,13 @@
         <v>82306</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H45" s="7">
         <v>68</v>
@@ -3943,13 +3940,13 @@
         <v>70387</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M45" s="7">
         <v>149</v>
@@ -3958,13 +3955,13 @@
         <v>152694</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3976,13 @@
         <v>54732</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="G46" s="7" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="H46" s="7">
         <v>57</v>
@@ -3994,13 +3991,13 @@
         <v>63139</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M46" s="7">
         <v>111</v>
@@ -4009,13 +4006,13 @@
         <v>117871</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,10 +4027,10 @@
         <v>31671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>319</v>
@@ -4081,13 +4078,13 @@
         <v>305092</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48" s="7">
         <v>216</v>
@@ -4096,13 +4093,13 @@
         <v>230131</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M48" s="7">
         <v>516</v>
@@ -4111,13 +4108,13 @@
         <v>535223</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4182,13 @@
         <v>105051</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H50" s="7">
         <v>63</v>
@@ -4200,13 +4197,13 @@
         <v>65824</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M50" s="7">
         <v>161</v>
@@ -4215,13 +4212,13 @@
         <v>170875</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4233,13 @@
         <v>39866</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="H51" s="7">
         <v>24</v>
@@ -4251,13 +4248,13 @@
         <v>23771</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M51" s="7">
         <v>60</v>
@@ -4266,13 +4263,13 @@
         <v>63637</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>156</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4284,13 @@
         <v>215632</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H52" s="7">
         <v>111</v>
@@ -4302,13 +4299,13 @@
         <v>115071</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M52" s="7">
         <v>316</v>
@@ -4317,7 +4314,7 @@
         <v>330702</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>350</v>
@@ -4341,10 +4338,10 @@
         <v>352</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H53" s="7">
         <v>75</v>
@@ -4353,10 +4350,10 @@
         <v>75198</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>356</v>
@@ -4524,10 +4521,10 @@
         <v>383</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4539,13 @@
         <v>1080606</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H57" s="7">
         <v>699</v>
@@ -4557,13 +4554,13 @@
         <v>723907</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M57" s="7">
         <v>1710</v>
@@ -4572,18 +4569,18 @@
         <v>1804513</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4604,7 +4601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBE3F96-8E14-4E45-8494-C0E08C90ED36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA27E7-840B-4B89-98CB-91127F4FC9BD}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4621,7 +4618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4728,13 +4725,13 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>243</v>
@@ -4743,13 +4740,13 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>361</v>
@@ -4758,13 +4755,13 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,37 +4782,37 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,37 +4833,37 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,37 +4884,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,37 +4935,37 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,37 +4986,37 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,37 +5037,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,37 +5088,37 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5133,13 @@
         <v>101982</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>243</v>
@@ -5151,13 +5148,13 @@
         <v>130733</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>361</v>
@@ -5166,18 +5163,18 @@
         <v>232715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5">
         <v>994</v>
@@ -5189,13 +5186,13 @@
         <v>549823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>998</v>
@@ -5204,13 +5201,13 @@
         <v>619967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>1610</v>
@@ -5219,13 +5216,13 @@
         <v>1169790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,7 +5243,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5276,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5294,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5327,7 +5324,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5345,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5378,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5396,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5429,7 +5426,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5447,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5480,7 +5477,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5498,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5531,7 +5528,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,7 +5549,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5582,7 +5579,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5594,13 @@
         <v>549823</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>998</v>
@@ -5612,13 +5609,13 @@
         <v>619967</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21" s="7">
         <v>1610</v>
@@ -5627,13 +5624,13 @@
         <v>1169790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5647,13 @@
         <v>1039248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>1517</v>
@@ -5665,13 +5662,13 @@
         <v>1060079</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>2481</v>
@@ -5680,13 +5677,13 @@
         <v>2099327</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,37 +5704,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,37 +5755,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,37 +5806,37 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,37 +5857,37 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,37 +5908,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,37 +5959,37 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,37 +6010,37 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6055,13 @@
         <v>1039248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="7">
         <v>1517</v>
@@ -6073,13 +6070,13 @@
         <v>1060079</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>2481</v>
@@ -6088,18 +6085,18 @@
         <v>2099327</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="5">
         <v>994</v>
@@ -6111,13 +6108,13 @@
         <v>728772</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="7">
         <v>1047</v>
@@ -6126,13 +6123,13 @@
         <v>874371</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M31" s="7">
         <v>1723</v>
@@ -6141,13 +6138,13 @@
         <v>1603142</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,22 +6165,22 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6219,22 +6216,22 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6270,22 +6267,22 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6321,22 +6318,22 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6372,22 +6369,22 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6423,22 +6420,22 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6474,22 +6471,22 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6519,13 +6516,13 @@
         <v>728772</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" s="7">
         <v>1047</v>
@@ -6534,13 +6531,13 @@
         <v>874371</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M39" s="7">
         <v>1723</v>
@@ -6549,18 +6546,18 @@
         <v>1603142</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B40" s="5">
         <v>994</v>
@@ -6572,13 +6569,13 @@
         <v>965403</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H40" s="7">
         <v>1562</v>
@@ -6587,13 +6584,13 @@
         <v>1150432</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M40" s="7">
         <v>2568</v>
@@ -6602,13 +6599,13 @@
         <v>2115835</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6641,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6659,7 +6656,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,7 +6692,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6710,7 +6707,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,7 +6743,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -6761,7 +6758,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +6794,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6812,7 +6809,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6845,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6863,7 +6860,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,7 +6896,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6914,7 +6911,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6947,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6965,7 +6962,7 @@
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6977,13 @@
         <v>965403</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H48" s="7">
         <v>1562</v>
@@ -6995,13 +6992,13 @@
         <v>1150432</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M48" s="7">
         <v>2568</v>
@@ -7010,13 +7007,13 @@
         <v>2115835</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7030,13 @@
         <v>3385228</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H49" s="7">
         <v>5367</v>
@@ -7048,13 +7045,13 @@
         <v>3835581</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M49" s="7">
         <v>8743</v>
@@ -7063,13 +7060,13 @@
         <v>7220808</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,37 +7087,37 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,37 +7138,37 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,37 +7189,37 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="7">
-        <v>0</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,37 +7240,37 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="7" t="s">
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,37 +7291,37 @@
         <v>11</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,37 +7342,37 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,37 +7393,37 @@
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7441,13 +7438,13 @@
         <v>3385228</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H57" s="7">
         <v>5367</v>
@@ -7456,13 +7453,13 @@
         <v>3835581</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M57" s="7">
         <v>8743</v>
@@ -7471,18 +7468,18 @@
         <v>7220808</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
